--- a/Update_WID_external_data.xlsx
+++ b/Update_WID_external_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Data modifications" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="137">
   <si>
     <t>URL</t>
   </si>
@@ -450,6 +450,15 @@
   </si>
   <si>
     <t>Modify year in commands</t>
+  </si>
+  <si>
+    <t>Impute population data</t>
+  </si>
+  <si>
+    <t>https://esa.un.org/unpd/wpp/Download/Standard/ASCII/</t>
+  </si>
+  <si>
+    <t>https://esa.un.org/unpd/wpp/DVD/Files/1_Indicators%20(Standard)/ASCII_FILES/WPP2015_DB04_Population_By_Age_Annual.zip</t>
   </si>
 </sst>
 </file>
@@ -688,6 +697,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -705,9 +717,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -722,7 +731,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H25"/>
   <tableColumns count="8">
     <tableColumn id="1" name="DO-FILE"/>
@@ -1012,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,6 +1543,19 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1547,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Update_WID_external_data.xlsx
+++ b/Update_WID_external_data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
   <si>
     <t>URL</t>
   </si>
@@ -459,6 +459,12 @@
   </si>
   <si>
     <t>https://esa.un.org/unpd/wpp/DVD/Files/1_Indicators%20(Standard)/ASCII_FILES/WPP2015_DB04_Population_By_Age_Annual.zip</t>
+  </si>
+  <si>
+    <t>WPP2015_DB04_Population_By_Age_Annual.csv</t>
+  </si>
+  <si>
+    <t>UN WPP Population previsions</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1030,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,9 +1549,15 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>134</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>135</v>
